--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_275.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_275.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,433 +488,492 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>jaah_30</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1035714285714286</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['F', 'Bb', 'Bb'], ['Bb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(83.76, 92.66)]</t>
+          <t>[['D', 'G', 'G'], ['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(85.16, 94.9)]</t>
+          <t>[('0:00:01.380000', '0:00:04.140000'), ('0:00:00.460000', '0:00:03.220000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:16.889251', '0:01:20.407074'), ('0:00:01.014823', '0:00:06.126439')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(41.08, 43.26)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(24.838594, 30.028253)]</t>
+          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2698412698412698</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_29</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1714285714285714</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>[['E', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(1.15, 5.734)]</t>
+          <t>[['Eb', 'Ab:min', 'Ab:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(61.48, 63.58)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:48.396000', '0:00:52.899000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:06.330000', '0:00:08.880000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_45</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_28</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1011655011655012</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Eb:maj6', 'Bb:7', 'Eb:maj6', 'Eb:maj6']]</t>
-        </is>
+          <t>isophonics_290</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1522727272727273</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Ab:7', 'Db:maj6', 'Db:maj6']]</t>
+          <t>[['C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(24.8, 29.24)]</t>
+          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(15.7, 19.46)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:08.482392', '0:00:11.666439')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:27.771000', '0:00:41.282000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>isophonics_160</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_25</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06896551724137931</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['Eb:7', 'Ab:maj', 'Ab/7'], ['Bb:7', 'Eb:7', 'Ab:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(129.06, 134.2), (2.3, 7.04)]</t>
+          <t>[['F:7', 'Bb', 'Bb'], ['C:7', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96), (0.78, 5.26)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:54.072000', '0:00:59.053000'), ('0:00:37.633000', '0:00:41.753000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:30.410000', '0:00:35.040000'), ('0:00:46.390000', '0:00:51.080000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(23.3, 26.86), (12.28, 17.3)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(21.14, 27.92), (10.36, 18.44)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:24.520000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.425</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj'], ['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64), (10.56, 17.34)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(59.22, 66.88), (89.08, 98.1)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:08.150589', '0:01:15.697074'), ('0:00:02.612267', '0:00:17.443474')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:26.280000', '0:02:29.120000'), ('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3008021390374331</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.425</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(61.683832, 71.056785)]</t>
+          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:02:20.580000', '0:02:23.320000'), ('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:08.150589', '0:01:15.697074'), ('0:00:02.612267', '0:00:17.443474')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1093350383631713</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C', 'C/7', 'C/b7'], ['Bb', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A'], ['G', 'A', 'A']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(52.386, 56.294), (51.6, 55.527)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(46.365011, 53.946326), (19.371814, 23.760385)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2589285714285714</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(82.5, 90.74)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(47.02, 51.38)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:59.800000', '0:01:09.340000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2223837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(94.78, 114.14)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(63.12, 69.42)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
@@ -918,199 +982,170 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_51</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1298449612403101</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'C:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G', 'F', 'G', 'C']]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(33.079, 40.171)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(44.820884, 52.320929)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1063218390804598</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(48.25, 53.91)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(6.74, 8.9)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:06.760000', '0:01:15.700000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5397727272727273</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(27.6, 47.44)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(15.3, 19.72)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(5.78, 11.38), (16.04, 18.72)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(65.78, 74.48), (65.28, 71.0)]</t>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_80</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0298951048951049</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'F'], ['F', 'F:7', 'Bb'], ['G:min7', 'C:7', 'F']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'G:7/F', 'C:maj/E'], ['A:min7/C', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(21.41, 24.83), (1.64, 5.11), (20.73, 23.45)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(6.98, 13.38), (60.8, 69.04), (74.2, 81.18)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
